--- a/Chat Discord.xlsx
+++ b/Chat Discord.xlsx
@@ -14,23 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
-  <si>
-    <t>Dứt thôi anh em ơi</t>
-  </si>
-  <si>
-    <t>Chiến mạnh anh em ơi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Người đi mà chẳng nói một lời</t>
+  </si>
+  <si>
+    <t>Để anh chơi vơi giữa dòng đời</t>
+  </si>
+  <si>
+    <t>Lời yêu sao nay quá xa xôi</t>
+  </si>
+  <si>
+    <t>Lời thương giờ này cũng lặng trôi</t>
+  </si>
+  <si>
+    <t>Nhận tin em sắp sống bên người</t>
+  </si>
+  <si>
+    <t>Mà em thương yêu đến cuối đời</t>
+  </si>
+  <si>
+    <t>Lòng anh như đau thắt em ơi</t>
+  </si>
+  <si>
+    <t>Làm sao để lệ thôi ngừng rơi</t>
+  </si>
+  <si>
+    <t>Hôm nay em hạnh phúc rồi</t>
+  </si>
+  <si>
+    <t>Em đã bên người mà lòng em yêu</t>
+  </si>
+  <si>
+    <t>Em quên câu hẹn câu thề</t>
+  </si>
+  <si>
+    <t>Em hứa với người cả đời thương em</t>
+  </si>
+  <si>
+    <t>Em ơi chữ tình ngắn thôi</t>
+  </si>
+  <si>
+    <t>Mà sao anh phải kéo theo một đời</t>
+  </si>
+  <si>
+    <t>Em ơi em giờ có đôi</t>
+  </si>
+  <si>
+    <t>Còn anh thì phải lẻ loi thật rồi</t>
+  </si>
+  <si>
+    <t>Khi xưa hứa chẳng cách xa</t>
+  </si>
+  <si>
+    <t>Gừng cay muối mặn chẳng ham lụa là</t>
+  </si>
+  <si>
+    <t>Hôm nay áo hồng gấm hoa</t>
+  </si>
+  <si>
+    <t>Tình xưa người trả hết anh thật à</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,10 +335,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -282,57 +346,108 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chat Discord.xlsx
+++ b/Chat Discord.xlsx
@@ -4,94 +4,159 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Người đi mà chẳng nói một lời</t>
-  </si>
-  <si>
-    <t>Để anh chơi vơi giữa dòng đời</t>
-  </si>
-  <si>
-    <t>Lời yêu sao nay quá xa xôi</t>
-  </si>
-  <si>
-    <t>Lời thương giờ này cũng lặng trôi</t>
-  </si>
-  <si>
-    <t>Nhận tin em sắp sống bên người</t>
-  </si>
-  <si>
-    <t>Mà em thương yêu đến cuối đời</t>
-  </si>
-  <si>
-    <t>Lòng anh như đau thắt em ơi</t>
-  </si>
-  <si>
-    <t>Làm sao để lệ thôi ngừng rơi</t>
-  </si>
-  <si>
-    <t>Hôm nay em hạnh phúc rồi</t>
-  </si>
-  <si>
-    <t>Em đã bên người mà lòng em yêu</t>
-  </si>
-  <si>
-    <t>Em quên câu hẹn câu thề</t>
-  </si>
-  <si>
-    <t>Em hứa với người cả đời thương em</t>
-  </si>
-  <si>
-    <t>Em ơi chữ tình ngắn thôi</t>
-  </si>
-  <si>
-    <t>Mà sao anh phải kéo theo một đời</t>
-  </si>
-  <si>
-    <t>Em ơi em giờ có đôi</t>
-  </si>
-  <si>
-    <t>Còn anh thì phải lẻ loi thật rồi</t>
-  </si>
-  <si>
-    <t>Khi xưa hứa chẳng cách xa</t>
-  </si>
-  <si>
-    <t>Gừng cay muối mặn chẳng ham lụa là</t>
-  </si>
-  <si>
-    <t>Hôm nay áo hồng gấm hoa</t>
-  </si>
-  <si>
-    <t>Tình xưa người trả hết anh thật à</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>I heard Ethereum is on the rise. What do you think about that?</t>
+  </si>
+  <si>
+    <t>Any recent news on hot blockchain projects?</t>
+  </si>
+  <si>
+    <t>Today, I invested in some new altcoins. Any recommendations?</t>
+  </si>
+  <si>
+    <t>What do you think the crypto market will look like in the second half of this year?</t>
+  </si>
+  <si>
+    <t>If you had a substantial amount of Bitcoin, would you hold or sell?</t>
+  </si>
+  <si>
+    <t>NFT projects are booming. Have you ventured into the world of NFTs yet?</t>
+  </si>
+  <si>
+    <t>Is DeFi revolutionizing our approach to finance?</t>
+  </si>
+  <si>
+    <t>Are you into staking? I'm exploring how to get involved.</t>
+  </si>
+  <si>
+    <t>I've heard major companies are eyeing crypto investments. Is that true?</t>
+  </si>
+  <si>
+    <t>Thinking about investing in NFT art. What are your thoughts?</t>
+  </si>
+  <si>
+    <t>What's your year-end prediction for Ethereum's price?</t>
+  </si>
+  <si>
+    <t>When you think crypto, is Bitcoin the first thing that comes to mind?</t>
+  </si>
+  <si>
+    <t>Considering buying some stablecoins for portfolio protection. What do you think?</t>
+  </si>
+  <si>
+    <t>I used to participate in ICOs; now, I'm looking into IEOs. Are you familiar with them?</t>
+  </si>
+  <si>
+    <t>If you had to choose between Bitcoin and Ethereum, which would you pick?</t>
+  </si>
+  <si>
+    <t>New exchanges are popping up. Have you tried them?</t>
+  </si>
+  <si>
+    <t>Do you believe blockchain can solve real-world issues?</t>
+  </si>
+  <si>
+    <t>What are your investment goals in crypto?</t>
+  </si>
+  <si>
+    <t>NFT gaming seems to be a hot trend. Are you partaking?</t>
+  </si>
+  <si>
+    <t>If you could create your own blockchain project, what would it be?</t>
+  </si>
+  <si>
+    <t>What's your outlook on the potential of altcoins in the future?</t>
+  </si>
+  <si>
+    <t>How do you choose your crypto storage wallets?</t>
+  </si>
+  <si>
+    <t>Tell me, have you come across any promising coins lately?</t>
+  </si>
+  <si>
+    <t>Do you believe blockchain has a positive impact on the world, fundamentally?</t>
+  </si>
+  <si>
+    <t>I'm considering liquidity farming. Do you think it's a good idea?</t>
+  </si>
+  <si>
+    <t>Is risk management the most crucial aspect of crypto investment?</t>
+  </si>
+  <si>
+    <t>What's your prediction for the future of stablecoins?</t>
+  </si>
+  <si>
+    <t>DeFi projects are facing challenges. What are they dealing with currently?</t>
+  </si>
+  <si>
+    <t>Do you think CBDCs (Central Bank Digital Currencies) will affect crypto?</t>
+  </si>
+  <si>
+    <t>Any updates on crypto regulations and laws?</t>
+  </si>
+  <si>
+    <t>If you could own a virtual land plot in the metaverse, what would you do with it?</t>
+  </si>
+  <si>
+    <t>Is crypto mining still profitable, or has it become more challenging?</t>
+  </si>
+  <si>
+    <t>I believe NFTs might change how we express personal interests. What's your take?</t>
+  </si>
+  <si>
+    <t>Any predictions about blockchain developments in the healthcare sector?</t>
+  </si>
+  <si>
+    <t>If chosen to join a renowned blockchain project, what would you do?</t>
+  </si>
+  <si>
+    <t>I'm into yield farming. Any experiences or advice you can share?</t>
+  </si>
+  <si>
+    <t>Are token classifications confusing to you? I can help clarify.</t>
+  </si>
+  <si>
+    <t>If you had to pick a blockchain project in renewable energy, what would it be?</t>
+  </si>
+  <si>
+    <t>Any news on blockchain developments in education?</t>
+  </si>
+  <si>
+    <t>I'm margin trading. Do you have any tips?</t>
+  </si>
+  <si>
+    <t>If you could choose an investing style in crypto, what would you prefer?</t>
+  </si>
+  <si>
+    <t>Any plans to get involved with DAOs (Decentralized Autonomous Organizations)?</t>
+  </si>
+  <si>
+    <t>NFT events seem to be happening frequently. Any you're interested in?</t>
+  </si>
+  <si>
+    <t>مرحبامرحبا ، هل متبقي هناك وقت لي عملnod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,11 +180,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,6 +191,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -335,119 +400,237 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="70.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="260" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>